--- a/data/SpGroups.xlsx
+++ b/data/SpGroups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slisovsk/Documents/HPAI_RiskMapping_Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA06B40C-EBE3-5C45-9317-327E10F07069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30350249-38C6-A14B-AC5E-92B26DDF18CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41940" yWindow="-12940" windowWidth="28040" windowHeight="17440" xr2:uid="{CCE02018-916B-A649-89F9-7FE52D6862C3}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21500" xr2:uid="{CCE02018-916B-A649-89F9-7FE52D6862C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1A53EC15-F353-9D40-B7BF-9A49BB226BA1}" name="groups" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/slisovsk/Downloads/groups.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/slisovsk/Downloads/groups.csv" decimal="," thousands="." semicolon="1">
       <textFields>
         <textField/>
       </textFields>
@@ -565,7 +565,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
